--- a/frontend/playwright/fixtures/sample-employees.xlsx
+++ b/frontend/playwright/fixtures/sample-employees.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/frontend/playwright/fixtures/sample-employees.xlsx
+++ b/frontend/playwright/fixtures/sample-employees.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,26 @@
           <t>Organization Name - Level 01</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2023 Completed Performance Rating</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2024 Completed Performance Rating</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2023 Completed Performance Rating</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2024 Completed Performance Rating</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -516,6 +536,26 @@
           <t>Engineering</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -558,6 +598,26 @@
           <t>Engineering</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +660,26 @@
           <t>Product</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -642,6 +722,26 @@
           <t>Product</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -684,6 +784,26 @@
           <t>Engineering</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -726,6 +846,26 @@
           <t>Engineering</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +908,26 @@
           <t>Sales</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -810,6 +970,26 @@
           <t>Sales</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -852,6 +1032,26 @@
           <t>Marketing</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +1094,26 @@
           <t>Engineering</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -936,6 +1156,26 @@
           <t>Sales</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -978,6 +1218,26 @@
           <t>Marketing</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1020,6 +1280,26 @@
           <t>Marketing</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1062,6 +1342,26 @@
           <t>Operations</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1402,26 @@
       <c r="H16" t="inlineStr">
         <is>
           <t>Engineering</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Low</t>
         </is>
       </c>
     </row>
